--- a/DateBase/orders/Nha Thu_2025-8-3.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-3.xlsx
@@ -916,6 +916,9 @@
       <c r="G2" t="str">
         <v>01054101210510851551555105102010151051120151520515155510101015104551510531121410</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
